--- a/similarities/split_global/harmonic_similarity_timestamps_379.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_379.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,138 +484,156 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>isophonics_32</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D/5', 'A', 'D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:43.140000', '0:01:00.240000')]</t>
+          <t>('0:00:00.340000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:14.400000', '0:01:26.060000')]</t>
+          <t>('0:02:04.702789', '0:02:10.612267')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=124.702789</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:maj', 'Bb:maj']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:min', 'A', 'D']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:02.760000', '0:01:12.921000')]</t>
+          <t>('0:00:52.680839', '0:00:55.420793')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:47.993000', '0:00:52.587959')]</t>
+          <t>('0:00:43.260000', '0:00:45.660000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=62.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=52.680839</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-170#t=47.993']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:00:18.870000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:02.500000', '0:01:12.760000')]</t>
+          <t>('0:01:05.300000', '0:01:13.120000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=62.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=65.3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -624,566 +642,592 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'F:dim', 'E:min7']]</t>
+          <t>['C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:min', 'B:dim', 'Bb:min7']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:21.106864', '0:00:25.541875')]</t>
+          <t>('0:00:13.648526', '0:00:21.125350')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:03.390000')]</t>
+          <t>('0:01:37.880000', '0:01:48.980000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=21.106864']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=13.648526</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=0.34']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A', 'D', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['E', 'A', 'E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:00:40.490000', '0:00:51.380000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:17.780000', '0:00:25.400000')]</t>
+          <t>('0:00:02.612267', '0:00:21.908049')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=17.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['C', 'F:maj', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/E', 'E:7', 'A:min'], ['C:maj', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>['Ab', 'Db', 'Db:7', 'Gb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:22.080000', '0:00:29.360000'), ('0:01:06.040000', '0:01:11.560000')]</t>
+          <t>('0:00:10.675000', '0:00:20.379000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:39.480000', '0:00:51.460000'), ('0:00:33.920000', '0:00:41.920000')]</t>
+          <t>('0:00:16.004920', '0:00:32.374988')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=22.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=66.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=10.675</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=39.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=33.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=16.00492</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:03.389127', '0:00:22.035759')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:19.140000', '0:00:22.240000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:13.860000')]</t>
+          <t>('0:00:00.580000', '0:00:09.400000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:02.980000', '0:00:08.800000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=2.98']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_47</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Db:7', 'Gb', 'Eb:7', 'Ab:7']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Bb:7', 'Eb:7']]</t>
+          <t>['G', 'C/5', 'G', 'C/5', 'G']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:19', '0:00:27.010000')]</t>
+          <t>('0:01:45', '0:01:48.840000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:31.750000', '0:00:40.680000')]</t>
+          <t>('0:00:59.182426', '0:01:08.064058')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-47#t=19.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=31.75']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb', 'F:min7', 'Bb:7']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G', 'A:min7', 'D:7']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:08.350000', '0:00:14.240000')]</t>
+          <t>('0:00:05.915850', '0:00:14.867142')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:40.450000', '0:00:47.850000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=40.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['C:7', 'F:min/C', 'F:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['E:7', 'A:min', 'A:min/b3']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
+          <t>('0:00:36.280000', '0:00:38')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:19.727000', '0:00:41.282000')]</t>
+          <t>('0:00:05.672040', '0:00:08.841564')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=36.28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=5.67204</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E', 'A:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:12.824000', '0:00:20.865000')]</t>
+          <t>('0:00:07.560000', '0:00:21.800000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:21.420000', '0:01:30.040000')]</t>
+          <t>('0:00:01.600000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
+          <t>['B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:22.500000', '0:00:29.300000')]</t>
+          <t>('0:00:10.200000', '0:00:16.480000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:51.420000', '0:00:55.540000')]</t>
+          <t>('0:00:12.094553', '0:00:24.840113')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=22.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=51.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:23.740000', '0:00:51.720000')]</t>
+          <t>('0:01:13.620000', '0:01:21.040000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:12.780000', '0:00:20.500000')]</t>
+          <t>('0:00:31.340000', '0:00:33.520000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=23.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=73.62</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=12.78']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=31.34</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G#:maj', 'D#:maj', 'G#:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:30.320000'), ('0:01:12.420000', '0:01:15.580000'), ('0:01:14.400000', '0:01:26.060000')]</t>
+          <t>('0:00:21.722199', '0:00:26.760929')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:51.800000', '0:00:59.900000'), ('0:00:56.600000', '0:01:01.460000'), ('0:01:07.760000', '0:01:17.500000')]</t>
+          <t>('0:02:01.080000', '0:02:02.040000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=19.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=72.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=21.722199</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=51.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=56.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=121.08</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
